--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Keywords List" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$K$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$K$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,35 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="109">
   <si>
     <t>Alert Id</t>
   </si>
   <si>
-    <t>Nguyen Phuong Thi</t>
-  </si>
-  <si>
-    <t>Mohamed Razali Mohamed Amin</t>
-  </si>
-  <si>
-    <t>Ang Kim Hock</t>
-  </si>
-  <si>
-    <t>Lim Keat Seong</t>
-  </si>
-  <si>
-    <t>Khairul Annuar Abdul Halim</t>
-  </si>
-  <si>
-    <t>Mohd Radzuan bin Abdul Halim</t>
-  </si>
-  <si>
-    <t>Muhammad Yahya bin Mohd Rashid</t>
-  </si>
-  <si>
-    <t>Kesavan a/l Subramaniam</t>
-  </si>
-  <si>
     <t>Hit Name</t>
   </si>
   <si>
@@ -72,316 +48,313 @@
     <t>Ent Id</t>
   </si>
   <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
     <t>PEP</t>
   </si>
   <si>
     <t>Family Member</t>
   </si>
   <si>
-    <t>Adverse Media</t>
-  </si>
-  <si>
     <t>Terrorism</t>
   </si>
   <si>
+    <t>Drug Trafficking</t>
+  </si>
+  <si>
+    <t>Diplomat</t>
+  </si>
+  <si>
+    <t>Govt Branch Member</t>
+  </si>
+  <si>
+    <t>Corruption</t>
+  </si>
+  <si>
+    <t>Unauthorized</t>
+  </si>
+  <si>
+    <t>Former PEP</t>
+  </si>
+  <si>
+    <t>Administrative</t>
+  </si>
+  <si>
+    <t>Tax Evasion</t>
+  </si>
+  <si>
+    <t>Money Laundering</t>
+  </si>
+  <si>
+    <t>Financial Crimes</t>
+  </si>
+  <si>
+    <t>Environmental Crimes</t>
+  </si>
+  <si>
+    <t>Mgmt Govt Corp</t>
+  </si>
+  <si>
+    <t>Fraud</t>
+  </si>
+  <si>
+    <t>Gambling Operations</t>
+  </si>
+  <si>
+    <t>Disciplined</t>
+  </si>
+  <si>
+    <t>Counterfeiting</t>
+  </si>
+  <si>
+    <t>Extort-Rack-Threats</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Organized Crime</t>
+  </si>
+  <si>
+    <t>Forgery</t>
+  </si>
+  <si>
+    <t>Govt Linked Corp</t>
+  </si>
+  <si>
+    <t>Bribery</t>
+  </si>
+  <si>
+    <t>AntiTrust violations</t>
+  </si>
+  <si>
+    <t>Securities Fraud</t>
+  </si>
+  <si>
+    <t>Burglary</t>
+  </si>
+  <si>
+    <t>Disqualified</t>
+  </si>
+  <si>
+    <t>Courts</t>
+  </si>
+  <si>
+    <t>Price Manipulation</t>
+  </si>
+  <si>
+    <t>Human Trafficking</t>
+  </si>
+  <si>
+    <t>Conspiracy</t>
+  </si>
+  <si>
+    <t>Stolen Property</t>
+  </si>
+  <si>
+    <t>Govt Owned Corp</t>
+  </si>
+  <si>
+    <t>Asset Freeze</t>
+  </si>
+  <si>
+    <t>Senior Party Member</t>
+  </si>
+  <si>
+    <t>Pharma Trafficking</t>
+  </si>
+  <si>
+    <t>Bank Fraud</t>
+  </si>
+  <si>
+    <t>Wire Fraud</t>
+  </si>
+  <si>
+    <t>Embezzlement</t>
+  </si>
+  <si>
+    <t>Arms Trafficking</t>
+  </si>
+  <si>
+    <t>Fugitive</t>
+  </si>
+  <si>
+    <t>Labor Violations</t>
+  </si>
+  <si>
+    <t>Most Wanted</t>
+  </si>
+  <si>
+    <t>Mortgage Fraud</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>text content</t>
+  </si>
+  <si>
+    <t>snapshot/screenshot link</t>
+  </si>
+  <si>
+    <t>Keyword  Hit?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Aircraft Hijacking</t>
+  </si>
+  <si>
+    <t>Crime Agnst Humanity</t>
+  </si>
+  <si>
+    <t>Cybercrime</t>
+  </si>
+  <si>
+    <t>Espionage</t>
+  </si>
+  <si>
+    <t>Explosives</t>
+  </si>
+  <si>
+    <t>Healthcare Fraud</t>
+  </si>
+  <si>
+    <t>Human Rights Abuse</t>
+  </si>
+  <si>
+    <t>Insider Trading</t>
+  </si>
+  <si>
+    <t>Insurance Fraud</t>
+  </si>
+  <si>
+    <t>ISIS Foreign Support</t>
+  </si>
+  <si>
+    <t>Kidnapping</t>
+  </si>
+  <si>
+    <t>Murder</t>
+  </si>
+  <si>
+    <t>Peonage</t>
+  </si>
+  <si>
+    <t>Piracy</t>
+  </si>
+  <si>
+    <t>Pollution</t>
+  </si>
+  <si>
+    <t>Pornography</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>Smuggling</t>
+  </si>
+  <si>
+    <t>War Crimes</t>
+  </si>
+  <si>
+    <t>WMD</t>
+  </si>
+  <si>
+    <t>Debarred</t>
+  </si>
+  <si>
+    <t>End Use Control</t>
+  </si>
+  <si>
+    <t>Excluded Party</t>
+  </si>
+  <si>
+    <t>Interstate Commerce</t>
+  </si>
+  <si>
+    <t>Associate</t>
+  </si>
+  <si>
+    <t>Attorney</t>
+  </si>
+  <si>
+    <t>Honorary Consul</t>
+  </si>
+  <si>
+    <t>Intl Org Leadership</t>
+  </si>
+  <si>
+    <t>Military</t>
+  </si>
+  <si>
+    <t>NGO Leadership</t>
+  </si>
+  <si>
+    <t>PEP Controlled Bus</t>
+  </si>
+  <si>
+    <t>Political Candidate</t>
+  </si>
+  <si>
+    <t>Union Leadership</t>
+  </si>
+  <si>
+    <t>RCA</t>
+  </si>
+  <si>
+    <t>Political Exposed Person</t>
+  </si>
+  <si>
+    <t>Relative Close Associates</t>
+  </si>
+  <si>
+    <t>Sanctioned</t>
+  </si>
+  <si>
+    <t>Sanction</t>
+  </si>
+  <si>
+    <t>Proliferation</t>
+  </si>
+  <si>
+    <t>Proliferation Financing</t>
+  </si>
+  <si>
+    <t>BNM</t>
+  </si>
+  <si>
+    <t>MACC</t>
+  </si>
+  <si>
+    <t>SPRM</t>
+  </si>
+  <si>
+    <t>AML</t>
+  </si>
+  <si>
+    <t>AMLA</t>
+  </si>
+  <si>
+    <t>Anti Money Laundering</t>
+  </si>
+  <si>
+    <t>Anti Bribery &amp; Corruption</t>
+  </si>
+  <si>
+    <t>Securities Commission</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Zhang Yang</t>
+  </si>
+  <si>
     <t>Enforcement</t>
-  </si>
-  <si>
-    <t>Drug Trafficking</t>
-  </si>
-  <si>
-    <t>Diplomat</t>
-  </si>
-  <si>
-    <t>Govt Branch Member</t>
-  </si>
-  <si>
-    <t>Corruption</t>
-  </si>
-  <si>
-    <t>Unauthorized</t>
-  </si>
-  <si>
-    <t>Former PEP</t>
-  </si>
-  <si>
-    <t>Administrative</t>
-  </si>
-  <si>
-    <t>Tax Evasion</t>
-  </si>
-  <si>
-    <t>Money Laundering</t>
-  </si>
-  <si>
-    <t>Financial Crimes</t>
-  </si>
-  <si>
-    <t>Environmental Crimes</t>
-  </si>
-  <si>
-    <t>Mgmt Govt Corp</t>
-  </si>
-  <si>
-    <t>Fraud</t>
-  </si>
-  <si>
-    <t>Gambling Operations</t>
-  </si>
-  <si>
-    <t>Disciplined</t>
-  </si>
-  <si>
-    <t>Counterfeiting</t>
-  </si>
-  <si>
-    <t>Extort-Rack-Threats</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Organized Crime</t>
-  </si>
-  <si>
-    <t>Forgery</t>
-  </si>
-  <si>
-    <t>Govt Linked Corp</t>
-  </si>
-  <si>
-    <t>Bribery</t>
-  </si>
-  <si>
-    <t>AntiTrust violations</t>
-  </si>
-  <si>
-    <t>Securities Fraud</t>
-  </si>
-  <si>
-    <t>Burglary</t>
-  </si>
-  <si>
-    <t>Disqualified</t>
-  </si>
-  <si>
-    <t>Courts</t>
-  </si>
-  <si>
-    <t>Price Manipulation</t>
-  </si>
-  <si>
-    <t>Human Trafficking</t>
-  </si>
-  <si>
-    <t>Conspiracy</t>
-  </si>
-  <si>
-    <t>Stolen Property</t>
-  </si>
-  <si>
-    <t>Govt Owned Corp</t>
-  </si>
-  <si>
-    <t>Asset Freeze</t>
-  </si>
-  <si>
-    <t>Senior Party Member</t>
-  </si>
-  <si>
-    <t>Pharma Trafficking</t>
-  </si>
-  <si>
-    <t>Bank Fraud</t>
-  </si>
-  <si>
-    <t>Wire Fraud</t>
-  </si>
-  <si>
-    <t>Embezzlement</t>
-  </si>
-  <si>
-    <t>Arms Trafficking</t>
-  </si>
-  <si>
-    <t>Fugitive</t>
-  </si>
-  <si>
-    <t>Labor Violations</t>
-  </si>
-  <si>
-    <t>Most Wanted</t>
-  </si>
-  <si>
-    <t>Mortgage Fraud</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>text content</t>
-  </si>
-  <si>
-    <t>snapshot/screenshot link</t>
-  </si>
-  <si>
-    <t>Keyword  Hit?</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Keywords</t>
-  </si>
-  <si>
-    <t>Aircraft Hijacking</t>
-  </si>
-  <si>
-    <t>Crime Agnst Humanity</t>
-  </si>
-  <si>
-    <t>Cybercrime</t>
-  </si>
-  <si>
-    <t>Espionage</t>
-  </si>
-  <si>
-    <t>Explosives</t>
-  </si>
-  <si>
-    <t>Healthcare Fraud</t>
-  </si>
-  <si>
-    <t>Human Rights Abuse</t>
-  </si>
-  <si>
-    <t>Insider Trading</t>
-  </si>
-  <si>
-    <t>Insurance Fraud</t>
-  </si>
-  <si>
-    <t>ISIS Foreign Support</t>
-  </si>
-  <si>
-    <t>Kidnapping</t>
-  </si>
-  <si>
-    <t>Murder</t>
-  </si>
-  <si>
-    <t>Peonage</t>
-  </si>
-  <si>
-    <t>Piracy</t>
-  </si>
-  <si>
-    <t>Pollution</t>
-  </si>
-  <si>
-    <t>Pornography</t>
-  </si>
-  <si>
-    <t>RICO</t>
-  </si>
-  <si>
-    <t>Smuggling</t>
-  </si>
-  <si>
-    <t>War Crimes</t>
-  </si>
-  <si>
-    <t>WMD</t>
-  </si>
-  <si>
-    <t>Debarred</t>
-  </si>
-  <si>
-    <t>End Use Control</t>
-  </si>
-  <si>
-    <t>Excluded Party</t>
-  </si>
-  <si>
-    <t>Interstate Commerce</t>
-  </si>
-  <si>
-    <t>Associate</t>
-  </si>
-  <si>
-    <t>Attorney</t>
-  </si>
-  <si>
-    <t>Honorary Consul</t>
-  </si>
-  <si>
-    <t>Intl Org Leadership</t>
-  </si>
-  <si>
-    <t>Military</t>
-  </si>
-  <si>
-    <t>NGO Leadership</t>
-  </si>
-  <si>
-    <t>PEP Controlled Bus</t>
-  </si>
-  <si>
-    <t>Political Candidate</t>
-  </si>
-  <si>
-    <t>Union Leadership</t>
-  </si>
-  <si>
-    <t>RCA</t>
-  </si>
-  <si>
-    <t>Political Exposed Person</t>
-  </si>
-  <si>
-    <t>Relative Close Associates</t>
-  </si>
-  <si>
-    <t>Sanctioned</t>
-  </si>
-  <si>
-    <t>Sanction</t>
-  </si>
-  <si>
-    <t>Proliferation</t>
-  </si>
-  <si>
-    <t>Proliferation Financing</t>
-  </si>
-  <si>
-    <t>BNM</t>
-  </si>
-  <si>
-    <t>MACC</t>
-  </si>
-  <si>
-    <t>SPRM</t>
-  </si>
-  <si>
-    <t>AML</t>
-  </si>
-  <si>
-    <t>AMLA</t>
-  </si>
-  <si>
-    <t>Anti Money Laundering</t>
-  </si>
-  <si>
-    <t>Anti Bribery &amp; Corruption</t>
-  </si>
-  <si>
-    <t>Securities Commission</t>
   </si>
 </sst>
 </file>
@@ -714,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD1432"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,271 +710,87 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B2">
-        <v>802048</v>
+        <v>802097</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>10716651</v>
+        <v>11814507</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B3">
-        <v>802049</v>
+        <v>802098</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>7759185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>802050</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4">
-        <v>7759185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>802051</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5">
-        <v>7494796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>802052</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6">
-        <v>7546185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>802053</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7">
-        <v>7759185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>802054</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8">
-        <v>285890</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>802054</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9">
-        <v>7576363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>802055</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10">
-        <v>11950847</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>802056</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11">
-        <v>1915358</v>
+        <v>11814507</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:K11"/>
+  <autoFilter ref="B1:K2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1023,10 +812,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1034,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1042,7 +831,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1050,7 +839,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1058,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1066,7 +855,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1074,7 +863,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1082,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1090,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1098,7 +887,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1106,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1114,7 +903,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1122,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1130,7 +919,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1138,7 +927,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1146,7 +935,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1154,7 +943,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1162,7 +951,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1170,7 +959,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1178,7 +967,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1186,7 +975,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1194,7 +983,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1202,7 +991,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1210,7 +999,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1218,7 +1007,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1226,7 +1015,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1234,7 +1023,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1242,7 +1031,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1250,7 +1039,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1258,7 +1047,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1266,7 +1055,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1274,7 +1063,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1282,7 +1071,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1290,7 +1079,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1298,7 +1087,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1306,7 +1095,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1314,7 +1103,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1322,7 +1111,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1330,7 +1119,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1338,7 +1127,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1346,7 +1135,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1354,7 +1143,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1362,7 +1151,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1370,7 +1159,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1378,7 +1167,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1386,7 +1175,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1394,7 +1183,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1402,7 +1191,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1410,7 +1199,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1418,7 +1207,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1426,7 +1215,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1434,7 +1223,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1442,7 +1231,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1450,7 +1239,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1458,7 +1247,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1466,7 +1255,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1474,7 +1263,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1482,7 +1271,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1490,7 +1279,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1498,7 +1287,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1506,7 +1295,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1514,7 +1303,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1522,7 +1311,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1530,7 +1319,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1538,7 +1327,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1546,7 +1335,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1554,7 +1343,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1562,7 +1351,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1570,7 +1359,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1578,7 +1367,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1586,7 +1375,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1594,7 +1383,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1602,7 +1391,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1610,7 +1399,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1618,7 +1407,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1626,7 +1415,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1634,7 +1423,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1642,7 +1431,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1650,7 +1439,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1658,7 +1447,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1666,7 +1455,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1674,7 +1463,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1682,7 +1471,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1690,7 +1479,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1698,7 +1487,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1706,7 +1495,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1714,7 +1503,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1722,7 +1511,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1730,7 +1519,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1738,7 +1527,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1746,7 +1535,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1754,7 +1543,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1762,7 +1551,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1770,7 +1559,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1778,7 +1567,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
